--- a/public/files/template/inventory/kiba.xlsx
+++ b/public/files/template/inventory/kiba.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>KARTU INVENTARIS BARANG (KIB) A</t>
   </si>
@@ -38,15 +38,9 @@
     <t>:</t>
   </si>
   <si>
-    <t>DAERAH KHUSUS IBUKOTA JAKARTA</t>
-  </si>
-  <si>
     <t>Kab./Kota</t>
   </si>
   <si>
-    <t>KOTA JAKARTA TIMUR</t>
-  </si>
-  <si>
     <t>Bidang</t>
   </si>
   <si>
@@ -65,18 +59,12 @@
     <t>Sub Unit Organisasi</t>
   </si>
   <si>
-    <t>PKM KEC. MATRAMAN</t>
-  </si>
-  <si>
     <t>U P B</t>
   </si>
   <si>
     <t xml:space="preserve">NO. KODE LOKASI </t>
   </si>
   <si>
-    <t>11.09.05.07.01.09.57.00</t>
-  </si>
-  <si>
     <t>NOMOR</t>
   </si>
   <si>
@@ -198,6 +186,21 @@
   </si>
   <si>
     <t xml:space="preserve"> [a.hak]</t>
+  </si>
+  <si>
+    <t>[b.kode]</t>
+  </si>
+  <si>
+    <t>[b.kd_prov]</t>
+  </si>
+  <si>
+    <t>[b.kd_kab]</t>
+  </si>
+  <si>
+    <t>PKM [b.kd_kec]</t>
+  </si>
+  <si>
+    <t>PKM [b.kd_upb]</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -456,6 +459,34 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,21 +496,6 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -495,16 +511,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,42 +819,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -853,16 +862,14 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
+      <c r="F3" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="21"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -872,19 +879,17 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
+      <c r="F4" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -895,16 +900,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -918,7 +923,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -927,11 +932,11 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -943,16 +948,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -966,16 +971,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -989,16 +994,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1045,117 +1050,117 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="24" t="s">
+      <c r="L12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="24" t="s">
+      <c r="M12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="21" t="s">
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="B13" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="C13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="D13" s="23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="E13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="F13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="G13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="H13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="I13" s="27"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="I14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="B15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="6" t="s">
+      <c r="C15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="E15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="F15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="G15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="J15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="L15" s="9">
         <v>12</v>
@@ -1165,61 +1170,61 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="K17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="34"/>
+      <c r="N17" s="20"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -1438,6 +1443,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A16:M16"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="D12:F12"/>
@@ -1450,12 +1461,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A16:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/files/template/inventory/kiba.xlsx
+++ b/public/files/template/inventory/kiba.xlsx
@@ -797,7 +797,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C3" sqref="C3:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,11 +861,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G3" s="3"/>
@@ -882,11 +881,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="D4" s="22" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="3"/>
@@ -903,12 +901,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="3"/>
@@ -926,12 +922,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="3"/>
@@ -951,12 +945,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G7" s="3"/>
@@ -974,12 +966,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="3"/>
@@ -997,12 +987,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G9" s="3"/>
@@ -1443,11 +1431,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:I13"/>
     <mergeCell ref="A16:M16"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
@@ -1461,6 +1444,11 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
